--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC Umwerfend.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC Umwerfend.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="47">
   <si>
     <t>firstName</t>
   </si>
@@ -133,7 +133,25 @@
     <t>Nico</t>
   </si>
   <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Ollesch</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Ralf</t>
+  </si>
+  <si>
+    <t>Borchert</t>
   </si>
 </sst>
 </file>
@@ -194,11 +212,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -251,26 +269,26 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H2" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I2" s="3">
         <v>0.0</v>
       </c>
       <c r="J2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="2">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="3">
@@ -287,26 +305,26 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F3" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H3" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I3" s="3">
         <v>0.0</v>
       </c>
       <c r="J3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="2">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="4">
@@ -323,26 +341,26 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I4" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="2">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="5">
@@ -359,26 +377,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H5" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I5" s="3">
         <v>0.0</v>
       </c>
       <c r="J5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="2">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="6">
@@ -395,26 +413,26 @@
         <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F6" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I6" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="2">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="7">
@@ -431,26 +449,26 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I7" s="3">
         <v>0.0</v>
       </c>
       <c r="J7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="2">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="8">
@@ -467,26 +485,26 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F8" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I8" s="3">
         <v>0.0</v>
       </c>
       <c r="J8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="2">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="9">
@@ -503,26 +521,26 @@
         <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I9" s="3">
         <v>0.0</v>
       </c>
       <c r="J9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="2">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="10">
@@ -539,26 +557,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I10" s="3">
         <v>0.0</v>
       </c>
       <c r="J10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="2">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="11">
@@ -575,26 +593,26 @@
         <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I11" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="2">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="12">
@@ -611,26 +629,26 @@
         <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I12" s="3">
         <v>0.0</v>
       </c>
       <c r="J12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="2">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="13">
@@ -647,26 +665,26 @@
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F13" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G13" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I13" s="3">
         <v>0.0</v>
       </c>
       <c r="J13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="2">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="14">
@@ -683,26 +701,26 @@
         <v>12</v>
       </c>
       <c r="E14" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F14" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G14" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I14" s="3">
         <v>0.0</v>
       </c>
       <c r="J14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="2">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="15">
@@ -719,26 +737,26 @@
         <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G15" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I15" s="3">
         <v>0.0</v>
       </c>
       <c r="J15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="2">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="16">
@@ -755,26 +773,26 @@
         <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G16" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I16" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="2">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="17">
@@ -791,26 +809,26 @@
         <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F17" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G17" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H17" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I17" s="3">
         <v>0.0</v>
       </c>
       <c r="J17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="2">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="18">
@@ -827,26 +845,26 @@
         <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="F18" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G18" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="H18" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I18" s="3">
         <v>0.0</v>
       </c>
       <c r="J18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="2">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="19">
@@ -863,26 +881,26 @@
         <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F19" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G19" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H19" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I19" s="3">
         <v>0.0</v>
       </c>
       <c r="J19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="2">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="20">
@@ -914,7 +932,7 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="2">
@@ -950,7 +968,7 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="2">
@@ -971,26 +989,26 @@
         <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F22" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H22" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I22" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="2">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="23">
@@ -1007,26 +1025,26 @@
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F23" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H23" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I23" s="3">
         <v>0.0</v>
       </c>
       <c r="J23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="2">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="24">
@@ -1043,26 +1061,26 @@
         <v>12</v>
       </c>
       <c r="E24" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F24" s="3">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I24" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J24" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="2">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="25">
@@ -1079,26 +1097,26 @@
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F25" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H25" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I25" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="2">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="26">
@@ -1115,26 +1133,26 @@
         <v>12</v>
       </c>
       <c r="E26" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F26" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G26" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H26" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I26" s="3">
         <v>0.0</v>
       </c>
       <c r="J26" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="2">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="27">
@@ -1151,26 +1169,26 @@
         <v>12</v>
       </c>
       <c r="E27" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F27" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G27" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H27" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I27" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J27" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="2">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="28">
@@ -1187,26 +1205,26 @@
         <v>12</v>
       </c>
       <c r="E28" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F28" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G28" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H28" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I28" s="3">
         <v>0.0</v>
       </c>
       <c r="J28" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="2">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="29">
@@ -1223,26 +1241,26 @@
         <v>12</v>
       </c>
       <c r="E29" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F29" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G29" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H29" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I29" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J29" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="2">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="30">
@@ -1259,26 +1277,26 @@
         <v>12</v>
       </c>
       <c r="E30" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F30" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G30" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H30" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I30" s="3">
         <v>0.0</v>
       </c>
       <c r="J30" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="2">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="31">
@@ -1295,26 +1313,26 @@
         <v>12</v>
       </c>
       <c r="E31" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F31" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G31" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H31" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I31" s="3">
         <v>0.0</v>
       </c>
       <c r="J31" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="2">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="32">
@@ -1331,26 +1349,26 @@
         <v>12</v>
       </c>
       <c r="E32" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F32" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G32" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H32" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I32" s="3">
         <v>0.0</v>
       </c>
       <c r="J32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="2">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="33">
@@ -1367,26 +1385,26 @@
         <v>12</v>
       </c>
       <c r="E33" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F33" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I33" s="3">
         <v>0.0</v>
       </c>
       <c r="J33" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="2">
-        <v>0.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="34">
@@ -1403,26 +1421,26 @@
         <v>12</v>
       </c>
       <c r="E34" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F34" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G34" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H34" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I34" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J34" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="2">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="35">
@@ -1439,26 +1457,26 @@
         <v>12</v>
       </c>
       <c r="E35" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F35" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G35" s="3">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="H35" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I35" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J35" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="2">
-        <v>0.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="36">
@@ -1475,26 +1493,26 @@
         <v>12</v>
       </c>
       <c r="E36" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F36" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G36" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H36" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I36" s="3">
         <v>0.0</v>
       </c>
       <c r="J36" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="2">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="37">
@@ -1511,26 +1529,26 @@
         <v>12</v>
       </c>
       <c r="E37" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F37" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H37" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I37" s="3">
         <v>0.0</v>
       </c>
       <c r="J37" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="2">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="38">
@@ -1547,26 +1565,26 @@
         <v>12</v>
       </c>
       <c r="E38" s="2">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F38" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H38" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I38" s="2">
         <v>0.0</v>
       </c>
       <c r="J38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="2">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="39">
@@ -1583,26 +1601,26 @@
         <v>12</v>
       </c>
       <c r="E39" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F39" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G39" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H39" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I39" s="2">
         <v>0.0</v>
       </c>
       <c r="J39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="2">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="40">
@@ -1619,26 +1637,26 @@
         <v>12</v>
       </c>
       <c r="E40" s="2">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F40" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G40" s="2">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H40" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I40" s="2">
         <v>0.0</v>
       </c>
       <c r="J40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="2">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="41">
@@ -1655,26 +1673,26 @@
         <v>12</v>
       </c>
       <c r="E41" s="2">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F41" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G41" s="2">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="H41" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I41" s="2">
         <v>0.0</v>
       </c>
       <c r="J41" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="2">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="42">
@@ -1691,25 +1709,25 @@
         <v>12</v>
       </c>
       <c r="E42" s="2">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F42" s="2">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G42" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H42" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I42" s="2">
         <v>0.0</v>
       </c>
       <c r="J42" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="43">
@@ -1726,25 +1744,25 @@
         <v>12</v>
       </c>
       <c r="E43" s="2">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F43" s="2">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H43" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I43" s="2">
         <v>0.0</v>
       </c>
       <c r="J43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="44">
@@ -1761,25 +1779,25 @@
         <v>12</v>
       </c>
       <c r="E44" s="2">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F44" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G44" s="2">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H44" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I44" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="45">
@@ -1796,25 +1814,25 @@
         <v>12</v>
       </c>
       <c r="E45" s="2">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F45" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G45" s="2">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H45" s="2">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I45" s="2">
         <v>0.0</v>
       </c>
       <c r="J45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="46">
@@ -1831,25 +1849,25 @@
         <v>12</v>
       </c>
       <c r="E46" s="2">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F46" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G46" s="2">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H46" s="2">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I46" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J46" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="47">
@@ -1866,25 +1884,25 @@
         <v>12</v>
       </c>
       <c r="E47" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F47" s="2">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G47" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H47" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I47" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J47" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="48">
@@ -1901,25 +1919,25 @@
         <v>12</v>
       </c>
       <c r="E48" s="2">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F48" s="2">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G48" s="2">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H48" s="2">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I48" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J48" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="49">
@@ -1936,25 +1954,25 @@
         <v>12</v>
       </c>
       <c r="E49" s="2">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F49" s="2">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G49" s="2">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H49" s="2">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I49" s="2">
         <v>0.0</v>
       </c>
       <c r="J49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="50">
@@ -1971,25 +1989,25 @@
         <v>12</v>
       </c>
       <c r="E50" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F50" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G50" s="2">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H50" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I50" s="2">
         <v>0.0</v>
       </c>
       <c r="J50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="51">
@@ -2006,25 +2024,25 @@
         <v>12</v>
       </c>
       <c r="E51" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F51" s="2">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G51" s="2">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H51" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I51" s="2">
         <v>0.0</v>
       </c>
       <c r="J51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="52">
@@ -2041,25 +2059,25 @@
         <v>12</v>
       </c>
       <c r="E52" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F52" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G52" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H52" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I52" s="2">
         <v>0.0</v>
       </c>
       <c r="J52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="53">
@@ -2076,25 +2094,25 @@
         <v>12</v>
       </c>
       <c r="E53" s="2">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F53" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G53" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H53" s="2">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I53" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="54">
@@ -2111,25 +2129,25 @@
         <v>12</v>
       </c>
       <c r="E54" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F54" s="2">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="G54" s="2">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H54" s="2">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I54" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J54" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="2">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="55">
@@ -2146,25 +2164,25 @@
         <v>12</v>
       </c>
       <c r="E55" s="2">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F55" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="G55" s="2">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H55" s="2">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I55" s="2">
         <v>0.0</v>
       </c>
       <c r="J55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="2">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="56">
@@ -2181,25 +2199,25 @@
         <v>12</v>
       </c>
       <c r="E56" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F56" s="2">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G56" s="2">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="H56" s="2">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I56" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J56" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="57">
@@ -2216,25 +2234,25 @@
         <v>12</v>
       </c>
       <c r="E57" s="2">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F57" s="2">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G57" s="2">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H57" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I57" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J57" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="58">
@@ -2251,25 +2269,25 @@
         <v>12</v>
       </c>
       <c r="E58" s="2">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F58" s="2">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="G58" s="2">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H58" s="2">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I58" s="2">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J58" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="2">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="59">
@@ -2286,25 +2304,25 @@
         <v>12</v>
       </c>
       <c r="E59" s="2">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F59" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G59" s="2">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H59" s="2">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I59" s="2">
         <v>0.0</v>
       </c>
       <c r="J59" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="2">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="60">
@@ -2321,25 +2339,25 @@
         <v>12</v>
       </c>
       <c r="E60" s="2">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F60" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G60" s="2">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H60" s="2">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I60" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="2">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="61">
@@ -2356,25 +2374,25 @@
         <v>12</v>
       </c>
       <c r="E61" s="2">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="F61" s="2">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G61" s="2">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H61" s="2">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I61" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="2">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="62">
@@ -2391,25 +2409,25 @@
         <v>12</v>
       </c>
       <c r="E62" s="2">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F62" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G62" s="2">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H62" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="I62" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="2">
-        <v>0.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="63">
@@ -2426,25 +2444,25 @@
         <v>12</v>
       </c>
       <c r="E63" s="2">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="F63" s="2">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G63" s="2">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H63" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I63" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="2">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="64">
@@ -2476,7 +2494,7 @@
         <v>0.0</v>
       </c>
       <c r="J64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="2">
         <v>0.0</v>
@@ -2511,242 +2529,290 @@
         <v>0.0</v>
       </c>
       <c r="J65" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C66" s="2">
         <v>1.0</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" s="2">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F66" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G66" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="B67" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C67" s="2">
         <v>2.0</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E67" s="2">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F67" s="2">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G67" s="2">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H67" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I67" s="2">
         <v>0.0</v>
       </c>
       <c r="J67" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="2">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C68" s="2">
         <v>1.0</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E68" s="2">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F68" s="2">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G68" s="2">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H68" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I68" s="2">
         <v>0.0</v>
       </c>
       <c r="J68" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="2">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C69" s="2">
         <v>2.0</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E69" s="2">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F69" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G69" s="2">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="H69" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I69" s="2">
         <v>0.0</v>
       </c>
       <c r="J69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="2">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C70" s="2">
         <v>3.0</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E70" s="2">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F70" s="2">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G70" s="2">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H70" s="2">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I70" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J70" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="2">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C71" s="2">
         <v>4.0</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E71" s="2">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F71" s="2">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G71" s="2">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H71" s="2">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I71" s="2">
         <v>0.0</v>
       </c>
       <c r="J71" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="2">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C72" s="2">
         <v>3.0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E72" s="2">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F72" s="2">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="G72" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H72" s="2">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I72" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J72" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="2">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C73" s="2">
         <v>4.0</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E73" s="2">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F73" s="2">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G73" s="2">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H73" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I73" s="2">
         <v>0.0</v>
       </c>
       <c r="J73" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="2">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
     </row>
   </sheetData>
